--- a/service/static/table.xlsx
+++ b/service/static/table.xlsx
@@ -15,6 +15,20 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>大夫士大夫</t>
+  </si>
+  <si>
+    <t>cv现场VS得到</t>
+  </si>
+  <si>
+    <t>从VS地方</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -23,14 +37,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,48 +495,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,97 +549,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,17 +992,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1111111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
